--- a/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\SE2223_57514_60045_60602_60694_60700\Project\Phase 2\Sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\SE2223_57514_60045_60602_60694_60700\Project\Phase 2\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE47A6A-D60C-4DA5-8525-64A2F998C484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F89D7DF-86EB-455A-BBDB-71CE66571D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId1"/>
@@ -456,6 +456,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -465,94 +549,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,7 +779,7 @@
   <dimension ref="B1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -801,173 +801,173 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="11"/>
       <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="11"/>
       <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="46" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="11"/>
       <c r="K4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="45" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="11"/>
       <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="28"/>
       <c r="F7" s="27"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="11"/>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="2">
         <v>4</v>
       </c>
@@ -1959,11 +1959,30 @@
     <row r="1000" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H3:I3"/>
@@ -1973,29 +1992,10 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint4/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\SE2223_57514_60045_60602_60694_60700\Project\Phase 2\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F89D7DF-86EB-455A-BBDB-71CE66571D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F46E20-E3F3-4909-B411-D45FBF333929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId1"/>
@@ -421,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
@@ -456,6 +456,87 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,93 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -779,7 +773,7 @@
   <dimension ref="B1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -801,173 +795,173 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="11"/>
       <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="24" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="11"/>
       <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="14" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="11"/>
       <c r="K4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="16" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="11"/>
       <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="11"/>
       <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="45" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="44" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="2">
         <v>4</v>
       </c>
@@ -1959,19 +1953,18 @@
     <row r="1000" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F6:G6"/>
@@ -1983,19 +1976,20 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
